--- a/데이터베이스 테이블/부서 테이블(완)/Departments Table.xlsx
+++ b/데이터베이스 테이블/부서 테이블(완)/Departments Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\부서 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\green - 1차 프로젝트\웹 페이지 그림 - prototype\데이터베이스 테이블\부서 테이블(완)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F3DF9A-28C3-438B-BCAA-740C0AA64B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005805B4-F1B5-47D8-BCCB-C19FCD682D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1005" windowWidth="23745" windowHeight="13680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18915" yWindow="1845" windowWidth="19200" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FK(Business)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Not</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PK2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>부서명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,6 +115,14 @@
   </si>
   <si>
     <t>Departments Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +158,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +189,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -513,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,6 +594,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,7 +890,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -886,29 +901,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,16 +931,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -933,16 +948,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -950,16 +965,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -967,41 +982,52 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="6"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
